--- a/results/FrequencyTables/25049410_LTR-D.xlsx
+++ b/results/FrequencyTables/25049410_LTR-D.xlsx
@@ -465,73 +465,73 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.00666173205033309</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.0111028867505551</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.00296076980014804</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.00148038490007402</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.0111028867505551</v>
       </c>
       <c r="G2">
-        <v>0.0606060606060606</v>
+        <v>0.117690599555885</v>
       </c>
       <c r="H2">
-        <v>0.0101010101010101</v>
+        <v>0.0399703923019985</v>
       </c>
       <c r="I2">
-        <v>0.0404040404040404</v>
+        <v>0.0162842339008142</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.00370096225018505</v>
       </c>
       <c r="K2">
-        <v>0.0101010101010101</v>
+        <v>0.0125832716506292</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.00518134715025907</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.00370096225018505</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.00370096225018505</v>
       </c>
       <c r="O2">
-        <v>0.0101010101010101</v>
+        <v>0.0185048112509252</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.00148038490007402</v>
       </c>
       <c r="Q2">
-        <v>0.0202020202020202</v>
+        <v>0.00666173205033309</v>
       </c>
       <c r="R2">
-        <v>1</v>
+        <v>0.977054034048853</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.0074019245003701</v>
       </c>
       <c r="T2">
-        <v>0.0101010101010101</v>
+        <v>0.0429311621021466</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>0.0266469282013323</v>
       </c>
       <c r="V2">
-        <v>0.0101010101010101</v>
+        <v>0.00814211695040711</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>0.00148038490007402</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>0.0125832716506292</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -539,46 +539,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.00222057735011103</v>
       </c>
       <c r="C3">
-        <v>0.717171717171717</v>
+        <v>0.686158401184308</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.00222057735011103</v>
       </c>
       <c r="E3">
-        <v>0.0404040404040404</v>
+        <v>0.0421909696521095</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>0.00074019245003701</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.00888230940044412</v>
       </c>
       <c r="H3">
-        <v>0.96969696969697</v>
+        <v>0.920059215396003</v>
       </c>
       <c r="I3">
-        <v>0.95959595959596</v>
+        <v>0.973353071798668</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.00074019245003701</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.00074019245003701</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.00666173205033309</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.00592153960029608</v>
       </c>
       <c r="N3">
-        <v>0.94949494949495</v>
+        <v>0.974833456698742</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.00074019245003701</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -587,25 +587,25 @@
         <v>0</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>0.00148038490007402</v>
       </c>
       <c r="S3">
-        <v>1</v>
+        <v>0.982975573649149</v>
       </c>
       <c r="T3">
-        <v>0.141414141414141</v>
+        <v>0.0895632864544782</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>0.00518134715025907</v>
       </c>
       <c r="V3">
         <v>0</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>0.00962250185048113</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>0.00370096225018505</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -613,73 +613,73 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.990377498149519</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.00370096225018505</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0.988156920799408</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.0133234641006662</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.982235381199112</v>
       </c>
       <c r="G4">
-        <v>0.939393939393939</v>
+        <v>0.86380458919319</v>
       </c>
       <c r="H4">
-        <v>0.0101010101010101</v>
+        <v>0.00296076980014804</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.00074019245003701</v>
       </c>
       <c r="J4">
-        <v>0.0101010101010101</v>
+        <v>0.0259067357512953</v>
       </c>
       <c r="K4">
-        <v>0.98989898989899</v>
+        <v>0.981495188749075</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.987416728349371</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>0.988156920799408</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.00222057735011103</v>
       </c>
       <c r="O4">
-        <v>0.98989898989899</v>
+        <v>0.978534418948927</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.998519615099926</v>
       </c>
       <c r="Q4">
-        <v>0.97979797979798</v>
+        <v>0.99259807549963</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>0.0162842339008142</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>0.00074019245003701</v>
       </c>
       <c r="T4">
-        <v>0.0505050505050505</v>
+        <v>0.0259067357512953</v>
       </c>
       <c r="U4">
-        <v>1</v>
+        <v>0.962250185048113</v>
       </c>
       <c r="V4">
-        <v>0.98989898989899</v>
+        <v>0.983715766099186</v>
       </c>
       <c r="W4">
-        <v>1</v>
+        <v>0.987416728349371</v>
       </c>
       <c r="X4">
-        <v>1</v>
+        <v>0.97779422649889</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -687,73 +687,73 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.00074019245003701</v>
       </c>
       <c r="C5">
-        <v>0.282828282828283</v>
+        <v>0.299037749814952</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.00666173205033309</v>
       </c>
       <c r="E5">
-        <v>0.95959595959596</v>
+        <v>0.94300518134715</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>0.00592153960029608</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.00888230940044412</v>
       </c>
       <c r="H5">
-        <v>0.0101010101010101</v>
+        <v>0.0362694300518135</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.00962250185048113</v>
       </c>
       <c r="J5">
-        <v>0.98989898989899</v>
+        <v>0.969652109548483</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.00444115470022206</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.00074019245003701</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.00074019245003701</v>
       </c>
       <c r="N5">
-        <v>0.0505050505050505</v>
+        <v>0.0192450037009623</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.00148038490007402</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>0.00074019245003701</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>0.00518134715025907</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>0.00888230940044412</v>
       </c>
       <c r="T5">
-        <v>0.797979797979798</v>
+        <v>0.84159881569208</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>0.00592153960029608</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>0.00814211695040711</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>0.00444115470022206</v>
       </c>
     </row>
   </sheetData>
